--- a/templates/export_doanra.xlsx
+++ b/templates/export_doanra.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -37,14 +37,35 @@
     <t>VĂN BẢN CHO PHÉP</t>
   </si>
   <si>
-    <t>ĐƠN VỊ</t>
+    <t>ĐƠN VỊ XIN PHÉP</t>
+  </si>
+  <si>
+    <t>NƯỚC ĐẾN</t>
+  </si>
+  <si>
+    <t>MỤC ĐÍCH</t>
+  </si>
+  <si>
+    <t>SỐ TIỀN</t>
+  </si>
+  <si>
+    <t>NGUỒN KINH PHÍ</t>
+  </si>
+  <si>
+    <t>ĐƠN VỊ MỜI</t>
+  </si>
+  <si>
+    <t>BÁO CÁO</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +93,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -101,6 +128,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -455,10 +485,17 @@
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -468,7 +505,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,6 +526,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
